--- a/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,78%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,53</t>
+          <t>93,55; 99,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>98,73; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,29</t>
+          <t>95,25; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>93,79; 99,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>97,61; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>98,79; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>95,25; 98,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>98,91; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>97,65; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,86%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>90,47; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>97,18; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>95,48; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>85,13; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>89,85; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>91,78; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>92,28; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>95,38; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>96,1; 100,0</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>93,19; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,48; 99,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,46; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>93,89; 99,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,23; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>95,76; 98,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>98,88; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,06; 99,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>93,55; 99,31</t>
+          <t>93,79; 99,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,17 +696,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,25; 100,0</t>
+          <t>95,36; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,79; 99,31</t>
+          <t>93,8; 99,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,61; 100,0</t>
+          <t>98,07; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,25; 98,94</t>
+          <t>95,26; 98,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>97,65; 100,0</t>
+          <t>97,95; 100,0</t>
         </is>
       </c>
     </row>
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,47; 100,0</t>
+          <t>89,67; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,37 +806,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,48; 100,0</t>
+          <t>95,71; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,13; 100,0</t>
+          <t>84,67; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,85; 100,0</t>
+          <t>89,8; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>91,78; 100,0</t>
+          <t>91,3; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>92,28; 100,0</t>
+          <t>92,18; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,38; 100,0</t>
+          <t>95,37; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,1; 100,0</t>
+          <t>96,04; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,45</t>
+          <t>95,15; 99,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,37 +1026,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,46; 100,0</t>
+          <t>97,07; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,02</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,23; 100,0</t>
+          <t>97,7; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100,0</t>
+          <t>97,63; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,89</t>
+          <t>95,67; 98,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>98,88; 100,0</t>
+          <t>98,78; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,06; 99,83</t>
+          <t>98,15; 99,83</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la diabetes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>115888</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>166407</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>138724</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>163517</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>238666</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>182961</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>279406</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>405072</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>321686</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>111207; 117755</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>164293; 166407</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>133550; 140053</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>157408; 166715</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>234936; 239552</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>180740; 182961</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>272789; 283326</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>401536; 405958</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>316378; 323015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53250</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69868</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>117996</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28158</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51298</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>78788</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>81408</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>121166</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>196784</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>48644; 54246</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>67901; 69868</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>113849; 118951</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24572; 29022</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>47080; 52429</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73123; 80092</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>76759; 83268</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>116638; 122297</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>191167; 199043</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10210</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11929</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20415</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7413</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7060</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10281</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17623</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18989</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8466; 10210</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10058; 11929</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18264; 20415</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5690; 7413</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5195; 7060</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8525; 10281</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15766; 17623</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16989; 18989</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28607; 30696</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>179348</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>248204</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>277135</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>297024</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>272031</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>378438</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>545228</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>549165</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>174150; 182029</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>246124; 248204</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>271231; 279419</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>192939; 202479</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>292161; 299041</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>266853; 273335</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>370497; 383218</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>540583; 547245</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>542521; 551796</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>